--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1969.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1969.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.004*"import" + 0.003*"exchange" + 0.003*"bank" + 0.003*"country" + 0.002*"foreign" + 0.002*"may" + 0.002*"account" + 0.002*"payment" + 0.002*"per" + 0.002*"area"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"bank" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"country" + 0.001*"account" + 0.001*"may" + 0.001*"export" + 0.001*"payment" + 0.001*"per"</t>
-  </si>
-  <si>
-    <t>0.010*"bank" + 0.010*"account" + 0.009*"import" + 0.009*"foreign" + 0.008*"exchange" + 0.007*"country" + 0.007*"payment" + 0.006*"export" + 0.006*"resident" + 0.005*"currency"</t>
-  </si>
-  <si>
-    <t>0.021*"import" + 0.016*"foreign" + 0.015*"exchange" + 0.014*"bank" + 0.013*"may" + 0.012*"export" + 0.012*"country" + 0.012*"account" + 0.011*"payment" + 0.010*"currency"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"bank" + 0.002*"country" + 0.002*"foreign" + 0.002*"exchange" + 0.002*"may" + 0.001*"account" + 0.001*"payment" + 0.001*"currency" + 0.001*"export"</t>
+    <t>0.040*"foreign" + 0.029*"may" + 0.019*"investment" + 0.016*"abroad" + 0.016*"franc" + 0.014*"country" + 0.014*"person" + 0.013*"french" + 0.012*"traveler" + 0.012*"resident"</t>
+  </si>
+  <si>
+    <t>0.039*"exchange" + 0.029*"bank" + 0.026*"control" + 0.020*"foreign" + 0.017*"approval" + 0.016*"require" + 0.014*"finance" + 0.013*"payment" + 0.011*"prior" + 0.009*"make"</t>
+  </si>
+  <si>
+    <t>0.061*"account" + 0.038*"license" + 0.034*"export" + 0.028*"may" + 0.027*"import" + 0.026*"fund" + 0.025*"payment" + 0.025*"gold" + 0.021*"monetary" + 0.019*"issue"</t>
+  </si>
+  <si>
+    <t>0.039*"currency" + 0.032*"exchange" + 0.028*"bank" + 0.023*"sterling" + 0.022*"area" + 0.021*"foreign" + 0.021*"rate" + 0.017*"country" + 0.016*"must" + 0.012*"market"</t>
+  </si>
+  <si>
+    <t>0.068*"import" + 0.043*"per" + 0.032*"cent" + 0.022*"good" + 0.021*"export" + 0.015*"list" + 0.015*"certain" + 0.014*"u" + 0.013*"tax" + 0.012*"subject"</t>
   </si>
 </sst>
 </file>
